--- a/data/handled.xlsx
+++ b/data/handled.xlsx
@@ -2978,7 +2978,7 @@
   <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="F357" sqref="F357"/>
+      <selection activeCell="F356" sqref="F356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
